--- a/data/pca/factorExposure/factorExposure_2013-05-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-24.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001109239806018321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001911514100557874</v>
+      </c>
+      <c r="C2">
+        <v>-0.03267848120859713</v>
+      </c>
+      <c r="D2">
+        <v>0.00563618537348817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001534936073423898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005837870944842283</v>
+      </c>
+      <c r="C4">
+        <v>-0.0834029564813813</v>
+      </c>
+      <c r="D4">
+        <v>0.08023727848296396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5.908997920672639e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01321623149912906</v>
+      </c>
+      <c r="C6">
+        <v>-0.1068560343976544</v>
+      </c>
+      <c r="D6">
+        <v>0.03611830799059729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001782326303665293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004736200440404154</v>
+      </c>
+      <c r="C7">
+        <v>-0.05164880661081497</v>
+      </c>
+      <c r="D7">
+        <v>0.03822198649007501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001636103316698789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005639505574879922</v>
+      </c>
+      <c r="C8">
+        <v>-0.03683518133737246</v>
+      </c>
+      <c r="D8">
+        <v>0.03907561601907896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004712947026665387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.003856930228877802</v>
+      </c>
+      <c r="C9">
+        <v>-0.06844151602476099</v>
+      </c>
+      <c r="D9">
+        <v>0.07079860509608706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.003220107769576573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005741490894015028</v>
+      </c>
+      <c r="C10">
+        <v>-0.07596614244777693</v>
+      </c>
+      <c r="D10">
+        <v>-0.2110257023833251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004658659583870802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.004960328643123262</v>
+      </c>
+      <c r="C11">
+        <v>-0.07770492398911277</v>
+      </c>
+      <c r="D11">
+        <v>0.06427207725876805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006815020694809278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003658353908449844</v>
+      </c>
+      <c r="C12">
+        <v>-0.06259794599968507</v>
+      </c>
+      <c r="D12">
+        <v>0.04606161161766162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003611731673822693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008571272741210837</v>
+      </c>
+      <c r="C13">
+        <v>-0.06888291142305927</v>
+      </c>
+      <c r="D13">
+        <v>0.07061574306539604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00256009345453344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001495181122870542</v>
+      </c>
+      <c r="C14">
+        <v>-0.04590251997865694</v>
+      </c>
+      <c r="D14">
+        <v>0.01417110694239773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.00260892336936904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005634471330191013</v>
+      </c>
+      <c r="C15">
+        <v>-0.037955020525076</v>
+      </c>
+      <c r="D15">
+        <v>0.03861154340026635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002641081694570605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004757746213308928</v>
+      </c>
+      <c r="C16">
+        <v>-0.06406261684780493</v>
+      </c>
+      <c r="D16">
+        <v>0.04878090917835189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0007786323589720839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008911317884093304</v>
+      </c>
+      <c r="C20">
+        <v>-0.06455529901920251</v>
+      </c>
+      <c r="D20">
+        <v>0.05597880824491196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004323553262535641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009871755555539203</v>
+      </c>
+      <c r="C21">
+        <v>-0.02281247764272388</v>
+      </c>
+      <c r="D21">
+        <v>0.03640823613949708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01637715293769465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007160550836622333</v>
+      </c>
+      <c r="C22">
+        <v>-0.09142444491065953</v>
+      </c>
+      <c r="D22">
+        <v>0.1013803479912099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01672522644482529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006951354159087686</v>
+      </c>
+      <c r="C23">
+        <v>-0.09248409318603477</v>
+      </c>
+      <c r="D23">
+        <v>0.1020107536153916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003196532590426589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004583986120900732</v>
+      </c>
+      <c r="C24">
+        <v>-0.07186319000572315</v>
+      </c>
+      <c r="D24">
+        <v>0.06084729453024235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004713959781673061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002647465618033975</v>
+      </c>
+      <c r="C25">
+        <v>-0.07680261868447681</v>
+      </c>
+      <c r="D25">
+        <v>0.06571478300756441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005953474558460386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003521092524195746</v>
+      </c>
+      <c r="C26">
+        <v>-0.04105556450286461</v>
+      </c>
+      <c r="D26">
+        <v>0.02848352706923693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00725685446343978</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.000492940943340096</v>
+      </c>
+      <c r="C28">
+        <v>-0.1272512362329074</v>
+      </c>
+      <c r="D28">
+        <v>-0.3078468365409328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002537341311392187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003219468115225765</v>
+      </c>
+      <c r="C29">
+        <v>-0.04779869578539548</v>
+      </c>
+      <c r="D29">
+        <v>0.01615159887360401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004361409873579693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008445116687685644</v>
+      </c>
+      <c r="C30">
+        <v>-0.1360212283921304</v>
+      </c>
+      <c r="D30">
+        <v>0.1105817842877044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0002222921090708392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006001535879650212</v>
+      </c>
+      <c r="C31">
+        <v>-0.04531624816062979</v>
+      </c>
+      <c r="D31">
+        <v>0.0326426251766541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001790650006190978</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003828918394808259</v>
+      </c>
+      <c r="C32">
+        <v>-0.04061069630344551</v>
+      </c>
+      <c r="D32">
+        <v>0.01211020478238321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002984223451062061</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007557019939439205</v>
+      </c>
+      <c r="C33">
+        <v>-0.08230192205546204</v>
+      </c>
+      <c r="D33">
+        <v>0.07562026801790393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005254967354054675</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003604802742134311</v>
+      </c>
+      <c r="C34">
+        <v>-0.05668461557185896</v>
+      </c>
+      <c r="D34">
+        <v>0.04640816705125654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003474919745751446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004716393503865458</v>
+      </c>
+      <c r="C35">
+        <v>-0.03805238045327554</v>
+      </c>
+      <c r="D35">
+        <v>0.01273894799729216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004334272636172421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001393091600498799</v>
+      </c>
+      <c r="C36">
+        <v>-0.02341257764932668</v>
+      </c>
+      <c r="D36">
+        <v>0.0213729255297289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002276365483863715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009430980295176408</v>
+      </c>
+      <c r="C38">
+        <v>-0.03388065571722788</v>
+      </c>
+      <c r="D38">
+        <v>0.02383589378326219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01312782878103271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001158971878219831</v>
+      </c>
+      <c r="C39">
+        <v>-0.114044829640574</v>
+      </c>
+      <c r="D39">
+        <v>0.08330093801695058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007500732023468622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002211778871512382</v>
+      </c>
+      <c r="C40">
+        <v>-0.08720832942911109</v>
+      </c>
+      <c r="D40">
+        <v>0.02695190808841069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>1.617949890382855e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007282313995427525</v>
+      </c>
+      <c r="C41">
+        <v>-0.03842350198637362</v>
+      </c>
+      <c r="D41">
+        <v>0.03585648924869467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002774536737806562</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003156508917080176</v>
+      </c>
+      <c r="C43">
+        <v>-0.04981001961354867</v>
+      </c>
+      <c r="D43">
+        <v>0.02834124541520569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0043378978950933</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003463255578873684</v>
+      </c>
+      <c r="C44">
+        <v>-0.1078866219882068</v>
+      </c>
+      <c r="D44">
+        <v>0.08480351569838093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002302222906595095</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002327201096731566</v>
+      </c>
+      <c r="C46">
+        <v>-0.03505149921097552</v>
+      </c>
+      <c r="D46">
+        <v>0.03446199719123672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008363811813154108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002839140579769148</v>
+      </c>
+      <c r="C47">
+        <v>-0.03960734327373601</v>
+      </c>
+      <c r="D47">
+        <v>0.02532265771185101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004148050210037845</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006436061538013707</v>
+      </c>
+      <c r="C48">
+        <v>-0.02895332767230988</v>
+      </c>
+      <c r="D48">
+        <v>0.03045275507978366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01313039330817976</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01365972832478813</v>
+      </c>
+      <c r="C49">
+        <v>-0.1705669666471577</v>
+      </c>
+      <c r="D49">
+        <v>0.03437616379679614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-8.144134620620189e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003502302759174728</v>
+      </c>
+      <c r="C50">
+        <v>-0.04161996997931126</v>
+      </c>
+      <c r="D50">
+        <v>0.03627397309362712</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.002008271596400356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00420127650118418</v>
+      </c>
+      <c r="C51">
+        <v>-0.01989714276015918</v>
+      </c>
+      <c r="D51">
+        <v>0.03293250357073599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001425566206402974</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02010426319199718</v>
+      </c>
+      <c r="C53">
+        <v>-0.164582685864417</v>
+      </c>
+      <c r="D53">
+        <v>0.05298319904052112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0003188933048579705</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008390618359297485</v>
+      </c>
+      <c r="C54">
+        <v>-0.05532256304584043</v>
+      </c>
+      <c r="D54">
+        <v>0.0421101399614431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00469883200488703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009217702074975407</v>
+      </c>
+      <c r="C55">
+        <v>-0.1048295826940195</v>
+      </c>
+      <c r="D55">
+        <v>0.05306792567493282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003498145847753902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01934962785252044</v>
+      </c>
+      <c r="C56">
+        <v>-0.1712181247057812</v>
+      </c>
+      <c r="D56">
+        <v>0.05014467281965797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007545244681014938</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01923465211288386</v>
+      </c>
+      <c r="C58">
+        <v>-0.1008838996359127</v>
+      </c>
+      <c r="D58">
+        <v>0.07934297546241219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008879376650908793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009317121676155444</v>
+      </c>
+      <c r="C59">
+        <v>-0.1701809100372198</v>
+      </c>
+      <c r="D59">
+        <v>-0.2798068961089168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00674642944625228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02303579839210676</v>
+      </c>
+      <c r="C60">
+        <v>-0.2212497528967199</v>
+      </c>
+      <c r="D60">
+        <v>0.028932793166968</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01477538880247127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00213017324152879</v>
+      </c>
+      <c r="C61">
+        <v>-0.09410141678730315</v>
+      </c>
+      <c r="D61">
+        <v>0.06257065271481331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1817956526025315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1435210287784404</v>
+      </c>
+      <c r="C62">
+        <v>-0.07639158673769594</v>
+      </c>
+      <c r="D62">
+        <v>0.05430887031114218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001397285597128582</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006332276060106537</v>
+      </c>
+      <c r="C63">
+        <v>-0.0591575951673864</v>
+      </c>
+      <c r="D63">
+        <v>0.02551516229039795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00727467622101572</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01451136319835193</v>
+      </c>
+      <c r="C64">
+        <v>-0.1023674814543639</v>
+      </c>
+      <c r="D64">
+        <v>0.06507310041749464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.000789077719284965</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01690362419596285</v>
+      </c>
+      <c r="C65">
+        <v>-0.1137275453276399</v>
+      </c>
+      <c r="D65">
+        <v>0.02982821423939088</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008790861515167395</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01195730389800046</v>
+      </c>
+      <c r="C66">
+        <v>-0.1524174022273079</v>
+      </c>
+      <c r="D66">
+        <v>0.1218679812590402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002518690559579546</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01547109963067353</v>
+      </c>
+      <c r="C67">
+        <v>-0.06321031704827905</v>
+      </c>
+      <c r="D67">
+        <v>0.03526959068852682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.009015228184680493</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001385654907205146</v>
+      </c>
+      <c r="C68">
+        <v>-0.1103633919581035</v>
+      </c>
+      <c r="D68">
+        <v>-0.2608562570170817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002524670737052055</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00572589397615332</v>
+      </c>
+      <c r="C69">
+        <v>-0.04710609524759498</v>
+      </c>
+      <c r="D69">
+        <v>0.04275714755118909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001669720921295486</v>
+      </c>
+      <c r="C70">
+        <v>-0.001639529624248899</v>
+      </c>
+      <c r="D70">
+        <v>0.001907019572465447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.005081842043693299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006183178767664429</v>
+      </c>
+      <c r="C71">
+        <v>-0.1129629771404919</v>
+      </c>
+      <c r="D71">
+        <v>-0.2830668348282069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008841555814163311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01503336305175565</v>
+      </c>
+      <c r="C72">
+        <v>-0.1501251031553493</v>
+      </c>
+      <c r="D72">
+        <v>0.02604686722949494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01332563825303369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02916044132191917</v>
+      </c>
+      <c r="C73">
+        <v>-0.2826707877122021</v>
+      </c>
+      <c r="D73">
+        <v>0.05155585045213337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004477494983253366</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001387285911246731</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044496653607511</v>
+      </c>
+      <c r="D74">
+        <v>0.04350055560504379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006525840662247227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01048438848120601</v>
+      </c>
+      <c r="C75">
+        <v>-0.1309206377611735</v>
+      </c>
+      <c r="D75">
+        <v>0.03731407823483467</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01176848089097681</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02107500910126946</v>
+      </c>
+      <c r="C76">
+        <v>-0.144922119092569</v>
+      </c>
+      <c r="D76">
+        <v>0.07423282256044877</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002151049316480077</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02414012114887554</v>
+      </c>
+      <c r="C77">
+        <v>-0.1323093954860508</v>
+      </c>
+      <c r="D77">
+        <v>0.06463170605712569</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003832885531246499</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01388736311673547</v>
+      </c>
+      <c r="C78">
+        <v>-0.09042199516473749</v>
+      </c>
+      <c r="D78">
+        <v>0.07007446975707315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02726711340341493</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03655717989086599</v>
+      </c>
+      <c r="C79">
+        <v>-0.1556006916289759</v>
+      </c>
+      <c r="D79">
+        <v>0.03489623431826844</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005347946222430033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01051342055506693</v>
+      </c>
+      <c r="C80">
+        <v>-0.04137254195245297</v>
+      </c>
+      <c r="D80">
+        <v>0.03275561015669497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>4.093859337496986e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01446738718528972</v>
+      </c>
+      <c r="C81">
+        <v>-0.1210129604711396</v>
+      </c>
+      <c r="D81">
+        <v>0.05656363676343798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006420178432141623</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01935200612888774</v>
+      </c>
+      <c r="C82">
+        <v>-0.141565193841584</v>
+      </c>
+      <c r="D82">
+        <v>0.04894911821244131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005876886318270731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009609402153707439</v>
+      </c>
+      <c r="C83">
+        <v>-0.05583386994067021</v>
+      </c>
+      <c r="D83">
+        <v>0.05213798630978438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01448525337507461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01154744468637462</v>
+      </c>
+      <c r="C84">
+        <v>-0.02982922090122067</v>
+      </c>
+      <c r="D84">
+        <v>-0.000517494120173474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01577959012819918</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02776496073918158</v>
+      </c>
+      <c r="C85">
+        <v>-0.1279760876257883</v>
+      </c>
+      <c r="D85">
+        <v>0.05258615296687628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002957910794211993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005362963411139851</v>
+      </c>
+      <c r="C86">
+        <v>-0.04914992856662865</v>
+      </c>
+      <c r="D86">
+        <v>0.02394998279691154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007785165185854218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.009942431175911632</v>
+      </c>
+      <c r="C87">
+        <v>-0.1274657639797403</v>
+      </c>
+      <c r="D87">
+        <v>0.08136732178140639</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01436299855446443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003016041706750074</v>
+      </c>
+      <c r="C88">
+        <v>-0.06875750166488588</v>
+      </c>
+      <c r="D88">
+        <v>0.01764977698930469</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01791832596269159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001030585137947285</v>
+      </c>
+      <c r="C89">
+        <v>-0.1641367483909137</v>
+      </c>
+      <c r="D89">
+        <v>-0.3437335971375627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005252499866522211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007383299624690551</v>
+      </c>
+      <c r="C90">
+        <v>-0.1426986582543431</v>
+      </c>
+      <c r="D90">
+        <v>-0.3158125310257007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001840707297376633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01017333437309297</v>
+      </c>
+      <c r="C91">
+        <v>-0.1046532942883601</v>
+      </c>
+      <c r="D91">
+        <v>0.02052592571724082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01466314008706478</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0005219238086278436</v>
+      </c>
+      <c r="C92">
+        <v>-0.1533273848545148</v>
+      </c>
+      <c r="D92">
+        <v>-0.3266651007036627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003325348958081557</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005267736658743786</v>
+      </c>
+      <c r="C93">
+        <v>-0.1254625549932688</v>
+      </c>
+      <c r="D93">
+        <v>-0.3114470572570965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003914403737951814</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02190478807127228</v>
+      </c>
+      <c r="C94">
+        <v>-0.1565002192301707</v>
+      </c>
+      <c r="D94">
+        <v>0.03626543593874141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004743674928464609</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01572798463662431</v>
+      </c>
+      <c r="C95">
+        <v>-0.124050949743417</v>
+      </c>
+      <c r="D95">
+        <v>0.07068977970282693</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002409928427048355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03423189366231783</v>
+      </c>
+      <c r="C97">
+        <v>-0.17834406769346</v>
+      </c>
+      <c r="D97">
+        <v>0.04401431988235569</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006579326064909462</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03531943400797703</v>
+      </c>
+      <c r="C98">
+        <v>-0.2554739762312884</v>
+      </c>
+      <c r="D98">
+        <v>0.04269389058968882</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9809205118804251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9829024559475386</v>
+      </c>
+      <c r="C99">
+        <v>0.1079695650304297</v>
+      </c>
+      <c r="D99">
+        <v>-0.03249561972791425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002496156979990637</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003259556763951499</v>
+      </c>
+      <c r="C101">
+        <v>-0.04781503082117984</v>
+      </c>
+      <c r="D101">
+        <v>0.01651939571012009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
